--- a/va_facility_data_2025-02-20/Tullahoma VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Tullahoma%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Tullahoma VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Tullahoma%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Re5e1c831b66a4932acedd7c78e0e1f85"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R6c65fd0e369c4a4ca4ddee9ffda83bb2"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rc1d3cd105af14881a5c9765647a5e53c"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R90eda518df5a4c688da7729db592d54a"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb43469dbc1dc42879c5474cbc48bba53"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R3ee5ce108e4449dca0c0cde44611f1d7"/>
   </x:sheets>
 </x:workbook>
 </file>
